--- a/PSDM/PFAS_properties.xlsx
+++ b/PSDM/PFAS_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/burkhardt_jonathan_epa_gov/Documents/PFAS/OW_Scott_Summers/prop_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/burkhardt_jonathan_epa_gov/Documents/Profile/Desktop/Git/Water_Treatment_Models/PSDM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{243AC0BC-A77A-4777-BCC0-26E650634C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9754865F-38E1-47E8-B06D-4FF12EFD3378}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{243AC0BC-A77A-4777-BCC0-26E650634C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE3BFC87-7A71-4630-8C18-EF11AA8DCBE2}"/>
   <bookViews>
-    <workbookView xWindow="9084" yWindow="10548" windowWidth="26424" windowHeight="18684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="9690" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,14 +143,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF626262"/>
       <name val="Roboto"/>
     </font>
   </fonts>
@@ -214,35 +211,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -261,9 +252,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -301,7 +292,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -407,7 +398,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -549,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -559,453 +550,450 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:X3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="8" t="s">
+      <c r="U1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="W1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="X1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>330.05</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>464.13</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>214.03899999999999</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>300.10000000000002</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>514.08600000000001</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>364.06200000000001</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>314.05399999999997</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>400.11</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>180.03</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>464.08</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>550.13</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>246.03700000000001</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>312.04399999999998</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>378.05099999999999</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>414.07</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>500.13</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>264.04700000000003</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>230.03800000000001</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>428.16</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>528.16999999999996</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>450.12</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="5">
         <v>250.09</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>350.1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="6">
         <f>B2/B4</f>
         <v>188.6</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <f>C2/C4</f>
         <v>252.24456521739128</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="6">
         <f>D2/D4</f>
         <v>129.72060606060606</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="6">
         <v>162</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="6">
         <v>292</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <f>G2/G4</f>
         <v>212.90175438596492</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <v>182</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="6">
         <v>217</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="6">
         <f>J2/J4</f>
         <v>111.12962962962962</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="6">
         <v>265</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="6">
         <f>L2/L4</f>
         <v>295.76881720430106</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="6">
         <f>M2/M4</f>
         <v>140.59257142857143</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="6">
         <f>N2/N4</f>
         <v>174.3262569832402</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="6">
         <f>O2/O4</f>
         <v>212.388202247191</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="6">
         <v>237</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="6">
         <v>272</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="6">
         <f t="shared" ref="R3:X3" si="0">R2/R4</f>
         <v>158.11197604790422</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="6">
         <f t="shared" si="0"/>
         <v>139.41696969696972</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="6">
         <f t="shared" si="0"/>
         <v>254.85714285714289</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="6">
         <f t="shared" si="0"/>
         <v>308.87134502923976</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="6">
         <f t="shared" si="0"/>
         <v>242</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="6">
         <f t="shared" si="0"/>
         <v>137.41208791208791</v>
       </c>
-      <c r="X3" s="10">
+      <c r="X3" s="6">
         <f t="shared" si="0"/>
         <v>191.31147540983608</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1.75</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="1">
         <v>1.84</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1.65</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1.83</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>1.79</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>1.71</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>1.69</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>1.84</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <v>1.62</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>1.78</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>1.86</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="1">
         <v>1.75</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="1">
         <v>1.79</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="1">
         <v>1.78</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>1.8</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <v>1.84</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>1.67</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="1">
         <v>1.65</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="1">
         <v>1.68</v>
       </c>
-      <c r="U4" s="6">
+      <c r="U4" s="1">
         <v>1.71</v>
       </c>
-      <c r="V4" s="6">
+      <c r="V4" s="1">
         <v>1.86</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="1">
         <v>1.82</v>
       </c>
-      <c r="X4" s="6">
+      <c r="X4" s="1">
         <v>1.83</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="7">
         <v>5.5199999999999999E-2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>2292.7640000000001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="7">
         <v>162.37165200000001</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="7">
         <v>200.05239799999995</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4">
+      <c r="Q5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>6.37</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="7">
         <v>0.23799999999999999</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="7">
         <v>3.1099999999999999E-2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>0.13300000000000001</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>1.45</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="7">
         <v>9.9500000000000005E-3</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>8.4600000000000009</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>0.17100000000000001</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="7">
         <v>5.6499999999999996E-3</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>0.52500000000000002</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="7">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>3.54</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>173</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>121</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>211</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>184</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>175</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>157</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>239</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <v>110</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>218</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>245</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <v>189</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <v>145</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>138</v>
       </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
